--- a/Data/Export/6A3_Student_List.xlsx
+++ b/Data/Export/6A3_Student_List.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MS90027</t>
+          <t>MS001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -481,29 +481,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>phhs_MS90027</t>
+          <t>phhs_MS001</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>phhs_MS90027_1234</t>
+          <t>phhs_MS001_1234</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6A3</t>
+          <t>6A1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MS01118</t>
+          <t>MS002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nguyễn Văn B</t>
+          <t>Trần Thị B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,29 +518,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>phhs_MS01118</t>
+          <t>phhs_MS002</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>phhs_MS01118_1234</t>
+          <t>phhs_MS002_1234</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6A3</t>
+          <t>6A1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MS36844</t>
+          <t>MS003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nguyễn Văn C</t>
+          <t>Lê Văn C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,29 +555,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>phhs_MS36844</t>
+          <t>phhs_MS003</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>phhs_MS36844_1234</t>
+          <t>phhs_MS003_1234</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6A3</t>
+          <t>6A1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MS83708</t>
+          <t>MS004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nguyễn Văn D</t>
+          <t>Phạm Thị D</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,29 +592,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>phhs_MS83708</t>
+          <t>phhs_MS004</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>phhs_MS83708_1234</t>
+          <t>phhs_MS004_1234</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6A3</t>
+          <t>6A1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MS25039</t>
+          <t>MS005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lý ANh Hiển</t>
+          <t>Đỗ Mạnh E</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,202 +629,54 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>phhs_MS25039</t>
+          <t>phhs_MS005</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>phhs_MS25039_1234</t>
+          <t>phhs_MS005_1234</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6A3</t>
+          <t>6A1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MS05711</t>
+          <t>MS86505</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nguyễn Văn F</t>
+          <t>Lý Sugi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2012-06-06</t>
+          <t>1/1/2023</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>phhs_MS05711</t>
+          <t>phhs_MS86505</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>phhs_MS05711_1234</t>
+          <t>phhs_MS86505_1234</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6A3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MS18375</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn G</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2012-07-07</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>phhs_MS18375</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>phhs_MS18375_1234</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>6A3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MS09283</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn I</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2012-09-09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>phhs_MS09283</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>phhs_MS09283_1234</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>6A3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MS48384</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Nguyễn Văn J</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Nữ</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2012-10-10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>phhs_MS48384</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>phhs_MS48384_1234</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>6A3</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MS30314</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>LEK</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Nữ</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11/1/4134</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>phhs_MS30314</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>phhs_MS30314_1234</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>6A3</t>
+          <t>6A1</t>
         </is>
       </c>
     </row>
